--- a/Mifos Automation Excels/Client/2467-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2467-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-NONE-Newcreateloan2.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,6 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -845,7 +844,6 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -887,9 +885,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
         <v>0</v>
       </c>
       <c r="P4" s="7">
@@ -935,9 +930,6 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
       <c r="P5" s="7">
         <v>963.77</v>
       </c>
@@ -981,9 +973,6 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
       <c r="P6" s="7">
         <v>963.77</v>
       </c>
@@ -1027,9 +1016,6 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
       <c r="P7" s="7">
         <v>963.77</v>
       </c>
@@ -1073,9 +1059,6 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
       <c r="P8" s="7">
         <v>963.77</v>
       </c>
@@ -1119,9 +1102,6 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
       <c r="P9" s="7">
         <v>963.77</v>
       </c>
@@ -1165,9 +1145,6 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
       <c r="P10" s="7">
         <v>963.77</v>
       </c>
@@ -1211,9 +1188,6 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
       <c r="P11" s="7">
         <v>963.77</v>
       </c>
@@ -1257,9 +1231,6 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
       <c r="P12" s="7">
         <v>963.77</v>
       </c>
@@ -1303,9 +1274,6 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
       <c r="P13" s="7">
         <v>963.77</v>
       </c>
@@ -1347,9 +1315,6 @@
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
@@ -1367,7 +1332,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1384,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1446,32 +1411,32 @@
         <v>0</v>
       </c>
       <c r="J2" s="10">
-        <v>9100.9599999999991</v>
+        <v>9133.2199999999993</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>950</v>
+        <v>963.77</v>
       </c>
       <c r="F3" s="7">
-        <v>899.04</v>
+        <v>866.78</v>
       </c>
       <c r="G3" s="7">
-        <v>50.96</v>
+        <v>96.99</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1480,14 +1445,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <v>4100.96</v>
+        <v>4133.22</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
